--- a/biology/Zoologie/Agalychnis_dacnicolor/Agalychnis_dacnicolor.xlsx
+++ b/biology/Zoologie/Agalychnis_dacnicolor/Agalychnis_dacnicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agalychnis dacnicolor est une espèce d'amphibiens de la famille des Phyllomedusidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agalychnis dacnicolor est une espèce d'amphibiens de la famille des Phyllomedusidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre sur la côte pacifique dans les États du Sonora, du Sinaloa, de Nayarit, du Jalisco, de Colima, du Michoacán, du Guerrero et d'Oaxaca et dans la dépression de la Balsas dans les États de Mexico, de Puebla et du Morelos du niveau de la mer à 1 000 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre sur la côte pacifique dans les États du Sonora, du Sinaloa, de Nayarit, du Jalisco, de Colima, du Michoacán, du Guerrero et d'Oaxaca et dans la dépression de la Balsas dans les États de Mexico, de Puebla et du Morelos du niveau de la mer à 1 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1864 : Contributions to the herpetology of tropical America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 16, p. 166-181 (texte intégral).</t>
         </is>
